--- a/ドキュメント/プロジェクト型演習_成果物フォーマット_塩谷.xlsx
+++ b/ドキュメント/プロジェクト型演習_成果物フォーマット_塩谷.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER122\Documents\project\TMS60\ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF851834-244F-4D38-9CD8-E581A9DA7B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3473B9F9-17DC-4E83-B0E2-C123575A373A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -1334,56 +1334,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1391,11 +1358,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1412,17 +1385,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -1433,34 +1415,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1470,6 +1464,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1487,11 +1484,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1499,23 +1505,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1540,21 +1540,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>67288</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>121331</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1042392</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76782</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55B3EB69-12E1-7835-13FB-EBCBFF3EB672}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DBAB390-0EB4-34C8-FBC6-9C9534AF0B63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1563,15 +1563,21 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1143613"/>
-          <a:ext cx="8757642" cy="4304687"/>
+          <a:off x="0" y="1017802"/>
+          <a:ext cx="8852647" cy="4493833"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4966,19 +4972,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="48" t="s">
+      <c r="E1" s="70"/>
+      <c r="F1" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="49"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
@@ -4990,72 +4996,72 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="73"/>
+      <c r="A2" s="64"/>
       <c r="B2" s="44"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="50" t="s">
+      <c r="C2" s="65"/>
+      <c r="D2" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="50" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="56">
+      <c r="G2" s="84"/>
+      <c r="H2" s="87">
         <v>46000</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="60"/>
+      <c r="J2" s="79"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="73"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="44"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="61"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="80"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="62"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="81"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="83" t="s">
+      <c r="B5" s="52"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="84"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="53"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="71" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="41"/>
       <c r="C6" s="42"/>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="54" t="s">
         <v>71</v>
       </c>
       <c r="E6" s="41"/>
@@ -5063,15 +5069,15 @@
       <c r="G6" s="41"/>
       <c r="H6" s="41"/>
       <c r="I6" s="41"/>
-      <c r="J6" s="66"/>
+      <c r="J6" s="55"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="71" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="41"/>
       <c r="C7" s="42"/>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="54" t="s">
         <v>68</v>
       </c>
       <c r="E7" s="41"/>
@@ -5079,33 +5085,33 @@
       <c r="G7" s="41"/>
       <c r="H7" s="41"/>
       <c r="I7" s="41"/>
-      <c r="J7" s="66"/>
+      <c r="J7" s="55"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="71" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="41"/>
       <c r="C8" s="42"/>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="86"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="57"/>
     </row>
     <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="75" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="42"/>
-      <c r="D9" s="87" t="s">
+      <c r="D9" s="58" t="s">
         <v>76</v>
       </c>
       <c r="E9" s="41"/>
@@ -5113,15 +5119,15 @@
       <c r="G9" s="41"/>
       <c r="H9" s="41"/>
       <c r="I9" s="41"/>
-      <c r="J9" s="66"/>
+      <c r="J9" s="55"/>
     </row>
     <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="79"/>
-      <c r="B10" s="63" t="s">
+      <c r="A10" s="73"/>
+      <c r="B10" s="75" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="42"/>
-      <c r="D10" s="65" t="s">
+      <c r="D10" s="54" t="s">
         <v>74</v>
       </c>
       <c r="E10" s="41"/>
@@ -5129,15 +5135,15 @@
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
       <c r="I10" s="41"/>
-      <c r="J10" s="66"/>
+      <c r="J10" s="55"/>
     </row>
     <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="80"/>
-      <c r="B11" s="63" t="s">
+      <c r="A11" s="74"/>
+      <c r="B11" s="75" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="42"/>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="54" t="s">
         <v>74</v>
       </c>
       <c r="E11" s="41"/>
@@ -5145,15 +5151,15 @@
       <c r="G11" s="41"/>
       <c r="H11" s="41"/>
       <c r="I11" s="41"/>
-      <c r="J11" s="66"/>
+      <c r="J11" s="55"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="71" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="41"/>
       <c r="C12" s="42"/>
-      <c r="D12" s="65" t="s">
+      <c r="D12" s="54" t="s">
         <v>75</v>
       </c>
       <c r="E12" s="41"/>
@@ -5161,21 +5167,21 @@
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
       <c r="I12" s="41"/>
-      <c r="J12" s="66"/>
+      <c r="J12" s="55"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="82"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="50"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -6166,6 +6172,25 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D5:J5"/>
     <mergeCell ref="D6:J6"/>
@@ -6174,25 +6199,6 @@
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D11:J11"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
@@ -6219,16 +6225,16 @@
       <c r="A1" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="48" t="s">
+      <c r="E1" s="70"/>
+      <c r="F1" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="49"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
@@ -6240,40 +6246,40 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="73"/>
+      <c r="A2" s="64"/>
       <c r="B2" s="44"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="60"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="79"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="73"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="44"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="61"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="80"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="62"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="81"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -7622,8 +7628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="T31" sqref="T31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -7637,16 +7643,16 @@
       <c r="A1" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="48" t="s">
+      <c r="E1" s="70"/>
+      <c r="F1" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="49"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
@@ -7658,44 +7664,44 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="73"/>
+      <c r="A2" s="64"/>
       <c r="B2" s="44"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="56">
+      <c r="C2" s="65"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="87">
         <v>46006</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="60"/>
+      <c r="J2" s="79"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="73"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="44"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="61"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="80"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="62"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="81"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -9040,7 +9046,7 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H32" sqref="H32:J32"/>
     </sheetView>
   </sheetViews>
@@ -9057,16 +9063,16 @@
       <c r="A1" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="48" t="s">
+      <c r="E1" s="70"/>
+      <c r="F1" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="49"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
@@ -9078,63 +9084,63 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="73"/>
+      <c r="A2" s="64"/>
       <c r="B2" s="44"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="56">
+      <c r="C2" s="65"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="87">
         <v>46006</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="60"/>
+      <c r="J2" s="79"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="73"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="44"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="61"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="80"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="73"/>
+      <c r="A4" s="64"/>
       <c r="B4" s="44"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="61"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="80"/>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="94" t="s">
+      <c r="B5" s="52"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="84"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="53"/>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="92" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="41"/>
@@ -9145,22 +9151,22 @@
       <c r="G6" s="41"/>
       <c r="H6" s="41"/>
       <c r="I6" s="41"/>
-      <c r="J6" s="66"/>
+      <c r="J6" s="55"/>
     </row>
     <row r="7" spans="1:10" ht="60" customHeight="1">
-      <c r="A7" s="95"/>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="97"/>
+      <c r="A7" s="94"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="96"/>
     </row>
     <row r="8" spans="1:10" ht="60" customHeight="1">
-      <c r="A8" s="73"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
       <c r="D8" s="44"/>
@@ -9169,10 +9175,10 @@
       <c r="G8" s="44"/>
       <c r="H8" s="44"/>
       <c r="I8" s="44"/>
-      <c r="J8" s="98"/>
+      <c r="J8" s="97"/>
     </row>
     <row r="9" spans="1:10" ht="60" customHeight="1">
-      <c r="A9" s="73"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
       <c r="D9" s="44"/>
@@ -9181,10 +9187,10 @@
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
       <c r="I9" s="44"/>
-      <c r="J9" s="98"/>
+      <c r="J9" s="97"/>
     </row>
     <row r="10" spans="1:10" ht="60" customHeight="1">
-      <c r="A10" s="73"/>
+      <c r="A10" s="64"/>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
       <c r="D10" s="44"/>
@@ -9193,10 +9199,10 @@
       <c r="G10" s="44"/>
       <c r="H10" s="44"/>
       <c r="I10" s="44"/>
-      <c r="J10" s="98"/>
+      <c r="J10" s="97"/>
     </row>
     <row r="11" spans="1:10" ht="60" customHeight="1">
-      <c r="A11" s="73"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
       <c r="D11" s="44"/>
@@ -9205,10 +9211,10 @@
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="98"/>
+      <c r="J11" s="97"/>
     </row>
     <row r="12" spans="1:10" ht="60" customHeight="1">
-      <c r="A12" s="73"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
       <c r="D12" s="44"/>
@@ -9217,10 +9223,10 @@
       <c r="G12" s="44"/>
       <c r="H12" s="44"/>
       <c r="I12" s="44"/>
-      <c r="J12" s="98"/>
+      <c r="J12" s="97"/>
     </row>
     <row r="13" spans="1:10" ht="60" customHeight="1">
-      <c r="A13" s="73"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
       <c r="D13" s="44"/>
@@ -9229,10 +9235,10 @@
       <c r="G13" s="44"/>
       <c r="H13" s="44"/>
       <c r="I13" s="44"/>
-      <c r="J13" s="98"/>
+      <c r="J13" s="97"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="92" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="41"/>
@@ -9243,15 +9249,15 @@
       <c r="G14" s="41"/>
       <c r="H14" s="41"/>
       <c r="I14" s="41"/>
-      <c r="J14" s="66"/>
+      <c r="J14" s="55"/>
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="92" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="41"/>
       <c r="C15" s="42"/>
-      <c r="D15" s="65" t="s">
+      <c r="D15" s="54" t="s">
         <v>79</v>
       </c>
       <c r="E15" s="41"/>
@@ -9266,7 +9272,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A16" s="89" t="s">
+      <c r="A16" s="92" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="41"/>
@@ -9283,14 +9289,14 @@
       <c r="G16" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="90" t="s">
+      <c r="H16" s="98" t="s">
         <v>19</v>
       </c>
       <c r="I16" s="41"/>
-      <c r="J16" s="66"/>
+      <c r="J16" s="55"/>
     </row>
     <row r="17" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="89" t="s">
         <v>80</v>
       </c>
       <c r="B17" s="41"/>
@@ -9307,85 +9313,85 @@
       <c r="G17" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="H17" s="65"/>
+      <c r="H17" s="54"/>
       <c r="I17" s="41"/>
-      <c r="J17" s="66"/>
+      <c r="J17" s="55"/>
     </row>
     <row r="18" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A18" s="91"/>
+      <c r="A18" s="89"/>
       <c r="B18" s="41"/>
       <c r="C18" s="42"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
-      <c r="H18" s="65"/>
+      <c r="H18" s="54"/>
       <c r="I18" s="41"/>
-      <c r="J18" s="66"/>
+      <c r="J18" s="55"/>
     </row>
     <row r="19" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A19" s="91"/>
+      <c r="A19" s="89"/>
       <c r="B19" s="41"/>
       <c r="C19" s="42"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="18"/>
       <c r="G19" s="17"/>
-      <c r="H19" s="65"/>
+      <c r="H19" s="54"/>
       <c r="I19" s="41"/>
-      <c r="J19" s="66"/>
+      <c r="J19" s="55"/>
     </row>
     <row r="20" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A20" s="91"/>
+      <c r="A20" s="89"/>
       <c r="B20" s="41"/>
       <c r="C20" s="42"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="18"/>
       <c r="G20" s="17"/>
-      <c r="H20" s="65"/>
+      <c r="H20" s="54"/>
       <c r="I20" s="41"/>
-      <c r="J20" s="66"/>
+      <c r="J20" s="55"/>
     </row>
     <row r="21" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A21" s="91"/>
+      <c r="A21" s="89"/>
       <c r="B21" s="41"/>
       <c r="C21" s="42"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="18"/>
       <c r="G21" s="17"/>
-      <c r="H21" s="65"/>
+      <c r="H21" s="54"/>
       <c r="I21" s="41"/>
-      <c r="J21" s="66"/>
+      <c r="J21" s="55"/>
     </row>
     <row r="22" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A22" s="91"/>
+      <c r="A22" s="89"/>
       <c r="B22" s="41"/>
       <c r="C22" s="42"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="18"/>
       <c r="G22" s="17"/>
-      <c r="H22" s="65"/>
+      <c r="H22" s="54"/>
       <c r="I22" s="41"/>
-      <c r="J22" s="66"/>
+      <c r="J22" s="55"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A23" s="93"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
+      <c r="A23" s="91"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="60"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="20"/>
       <c r="G23" s="19"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="82"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="50"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="25" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A25" s="89" t="s">
+      <c r="A25" s="92" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="41"/>
@@ -9396,15 +9402,15 @@
       <c r="G25" s="41"/>
       <c r="H25" s="41"/>
       <c r="I25" s="41"/>
-      <c r="J25" s="66"/>
+      <c r="J25" s="55"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A26" s="89" t="s">
+      <c r="A26" s="92" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="41"/>
       <c r="C26" s="42"/>
-      <c r="D26" s="65"/>
+      <c r="D26" s="54"/>
       <c r="E26" s="41"/>
       <c r="F26" s="41"/>
       <c r="G26" s="41"/>
@@ -9417,7 +9423,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A27" s="89" t="s">
+      <c r="A27" s="92" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="41"/>
@@ -9434,14 +9440,14 @@
       <c r="G27" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="90" t="s">
+      <c r="H27" s="98" t="s">
         <v>19</v>
       </c>
       <c r="I27" s="41"/>
-      <c r="J27" s="66"/>
+      <c r="J27" s="55"/>
     </row>
     <row r="28" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A28" s="91" t="s">
+      <c r="A28" s="89" t="s">
         <v>86</v>
       </c>
       <c r="B28" s="41"/>
@@ -9458,13 +9464,13 @@
       <c r="G28" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="H28" s="65"/>
+      <c r="H28" s="54"/>
       <c r="I28" s="41"/>
-      <c r="J28" s="66"/>
+      <c r="J28" s="55"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="30" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A30" s="89" t="s">
+      <c r="A30" s="92" t="s">
         <v>25</v>
       </c>
       <c r="B30" s="41"/>
@@ -9475,15 +9481,15 @@
       <c r="G30" s="41"/>
       <c r="H30" s="41"/>
       <c r="I30" s="41"/>
-      <c r="J30" s="66"/>
+      <c r="J30" s="55"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A31" s="89" t="s">
+      <c r="A31" s="92" t="s">
         <v>26</v>
       </c>
       <c r="B31" s="41"/>
       <c r="C31" s="42"/>
-      <c r="D31" s="65"/>
+      <c r="D31" s="54"/>
       <c r="E31" s="41"/>
       <c r="F31" s="41"/>
       <c r="G31" s="41"/>
@@ -9496,7 +9502,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A32" s="89" t="s">
+      <c r="A32" s="92" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="41"/>
@@ -9513,14 +9519,14 @@
       <c r="G32" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H32" s="90" t="s">
+      <c r="H32" s="98" t="s">
         <v>19</v>
       </c>
       <c r="I32" s="41"/>
-      <c r="J32" s="66"/>
+      <c r="J32" s="55"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A33" s="91" t="s">
+      <c r="A33" s="89" t="s">
         <v>87</v>
       </c>
       <c r="B33" s="41"/>
@@ -9537,9 +9543,9 @@
       <c r="G33" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="H33" s="65"/>
+      <c r="H33" s="54"/>
       <c r="I33" s="41"/>
-      <c r="J33" s="66"/>
+      <c r="J33" s="55"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="35" spans="1:10" ht="12.75" customHeight="1"/>
@@ -10510,16 +10516,25 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
@@ -10536,25 +10551,16 @@
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="D2:E4"/>
     <mergeCell ref="H23:J23"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -10579,133 +10585,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="48" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="48" t="s">
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="48" t="s">
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="48" t="s">
+      <c r="P1" s="70"/>
+      <c r="Q1" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="49"/>
-      <c r="S1" s="48" t="s">
+      <c r="R1" s="70"/>
+      <c r="S1" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="84"/>
+      <c r="T1" s="53"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1">
-      <c r="A2" s="73"/>
+      <c r="A2" s="64"/>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
       <c r="D2" s="44"/>
       <c r="E2" s="44"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="97"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="96"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1">
-      <c r="A3" s="73"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
       <c r="E3" s="44"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="85"/>
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="52"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="85"/>
       <c r="L3" s="44"/>
       <c r="M3" s="44"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="98"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="97"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="103"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="86"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="107"/>
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="83" t="s">
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="77"/>
-      <c r="T5" s="84"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="53"/>
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="92" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="41"/>
@@ -10713,7 +10719,7 @@
       <c r="D6" s="41"/>
       <c r="E6" s="41"/>
       <c r="F6" s="42"/>
-      <c r="G6" s="65" t="s">
+      <c r="G6" s="54" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="41"/>
@@ -10728,10 +10734,10 @@
       <c r="Q6" s="41"/>
       <c r="R6" s="41"/>
       <c r="S6" s="41"/>
-      <c r="T6" s="66"/>
+      <c r="T6" s="55"/>
     </row>
     <row r="7" spans="1:26" ht="18" customHeight="1">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="92" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="41"/>
@@ -10739,7 +10745,7 @@
       <c r="D7" s="41"/>
       <c r="E7" s="41"/>
       <c r="F7" s="42"/>
-      <c r="G7" s="65" t="s">
+      <c r="G7" s="54" t="s">
         <v>38</v>
       </c>
       <c r="H7" s="41"/>
@@ -10754,7 +10760,7 @@
       <c r="Q7" s="41"/>
       <c r="R7" s="41"/>
       <c r="S7" s="41"/>
-      <c r="T7" s="66"/>
+      <c r="T7" s="55"/>
     </row>
     <row r="8" spans="1:26" ht="7.5" customHeight="1">
       <c r="A8" s="8"/>
@@ -10953,7 +10959,7 @@
       <c r="T14" s="10"/>
     </row>
     <row r="15" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="92" t="s">
         <v>45</v>
       </c>
       <c r="B15" s="42"/>
@@ -10961,25 +10967,25 @@
         <v>39</v>
       </c>
       <c r="D15" s="42"/>
-      <c r="E15" s="90" t="s">
+      <c r="E15" s="98" t="s">
         <v>46</v>
       </c>
       <c r="F15" s="42"/>
-      <c r="G15" s="90" t="s">
+      <c r="G15" s="98" t="s">
         <v>47</v>
       </c>
       <c r="H15" s="41"/>
       <c r="I15" s="42"/>
-      <c r="J15" s="90" t="s">
+      <c r="J15" s="98" t="s">
         <v>48</v>
       </c>
       <c r="K15" s="42"/>
-      <c r="L15" s="90" t="s">
+      <c r="L15" s="98" t="s">
         <v>49</v>
       </c>
       <c r="M15" s="41"/>
       <c r="N15" s="42"/>
-      <c r="O15" s="90" t="s">
+      <c r="O15" s="98" t="s">
         <v>50</v>
       </c>
       <c r="P15" s="41"/>
@@ -10995,33 +11001,33 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="48" customHeight="1">
-      <c r="A16" s="104">
+      <c r="A16" s="99">
         <v>1</v>
       </c>
       <c r="B16" s="42"/>
-      <c r="C16" s="105" t="s">
+      <c r="C16" s="100" t="s">
         <v>54</v>
       </c>
       <c r="D16" s="42"/>
-      <c r="E16" s="105" t="s">
+      <c r="E16" s="100" t="s">
         <v>55</v>
       </c>
       <c r="F16" s="42"/>
-      <c r="G16" s="99" t="s">
+      <c r="G16" s="105" t="s">
         <v>56</v>
       </c>
       <c r="H16" s="41"/>
       <c r="I16" s="42"/>
-      <c r="J16" s="99" t="s">
+      <c r="J16" s="105" t="s">
         <v>57</v>
       </c>
       <c r="K16" s="42"/>
-      <c r="L16" s="101" t="s">
+      <c r="L16" s="103" t="s">
         <v>58</v>
       </c>
       <c r="M16" s="41"/>
       <c r="N16" s="42"/>
-      <c r="O16" s="101" t="s">
+      <c r="O16" s="103" t="s">
         <v>59</v>
       </c>
       <c r="P16" s="41"/>
@@ -11037,33 +11043,33 @@
       <c r="Z16" s="35"/>
     </row>
     <row r="17" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A17" s="104">
+      <c r="A17" s="99">
         <v>2</v>
       </c>
       <c r="B17" s="42"/>
-      <c r="C17" s="105" t="s">
+      <c r="C17" s="100" t="s">
         <v>60</v>
       </c>
       <c r="D17" s="42"/>
-      <c r="E17" s="105" t="s">
+      <c r="E17" s="100" t="s">
         <v>61</v>
       </c>
       <c r="F17" s="42"/>
-      <c r="G17" s="99" t="s">
+      <c r="G17" s="105" t="s">
         <v>62</v>
       </c>
       <c r="H17" s="41"/>
       <c r="I17" s="42"/>
-      <c r="J17" s="99" t="s">
+      <c r="J17" s="105" t="s">
         <v>63</v>
       </c>
       <c r="K17" s="42"/>
-      <c r="L17" s="101" t="s">
+      <c r="L17" s="103" t="s">
         <v>64</v>
       </c>
       <c r="M17" s="41"/>
       <c r="N17" s="42"/>
-      <c r="O17" s="101" t="s">
+      <c r="O17" s="103" t="s">
         <v>65</v>
       </c>
       <c r="P17" s="41"/>
@@ -11079,21 +11085,21 @@
       <c r="Z17" s="35"/>
     </row>
     <row r="18" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A18" s="104"/>
+      <c r="A18" s="99"/>
       <c r="B18" s="42"/>
-      <c r="C18" s="105"/>
+      <c r="C18" s="100"/>
       <c r="D18" s="42"/>
-      <c r="E18" s="105"/>
+      <c r="E18" s="100"/>
       <c r="F18" s="42"/>
-      <c r="G18" s="99"/>
+      <c r="G18" s="105"/>
       <c r="H18" s="41"/>
       <c r="I18" s="42"/>
-      <c r="J18" s="99"/>
+      <c r="J18" s="105"/>
       <c r="K18" s="42"/>
-      <c r="L18" s="101"/>
+      <c r="L18" s="103"/>
       <c r="M18" s="41"/>
       <c r="N18" s="42"/>
-      <c r="O18" s="101"/>
+      <c r="O18" s="103"/>
       <c r="P18" s="41"/>
       <c r="Q18" s="42"/>
       <c r="R18" s="33"/>
@@ -11107,21 +11113,21 @@
       <c r="Z18" s="35"/>
     </row>
     <row r="19" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A19" s="104"/>
+      <c r="A19" s="99"/>
       <c r="B19" s="42"/>
-      <c r="C19" s="105"/>
+      <c r="C19" s="100"/>
       <c r="D19" s="42"/>
-      <c r="E19" s="105"/>
+      <c r="E19" s="100"/>
       <c r="F19" s="42"/>
-      <c r="G19" s="99"/>
+      <c r="G19" s="105"/>
       <c r="H19" s="41"/>
       <c r="I19" s="42"/>
-      <c r="J19" s="99"/>
+      <c r="J19" s="105"/>
       <c r="K19" s="42"/>
-      <c r="L19" s="101"/>
+      <c r="L19" s="103"/>
       <c r="M19" s="41"/>
       <c r="N19" s="42"/>
-      <c r="O19" s="101"/>
+      <c r="O19" s="103"/>
       <c r="P19" s="41"/>
       <c r="Q19" s="42"/>
       <c r="R19" s="33"/>
@@ -11135,21 +11141,21 @@
       <c r="Z19" s="35"/>
     </row>
     <row r="20" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A20" s="104"/>
+      <c r="A20" s="99"/>
       <c r="B20" s="42"/>
-      <c r="C20" s="105"/>
+      <c r="C20" s="100"/>
       <c r="D20" s="42"/>
-      <c r="E20" s="105"/>
+      <c r="E20" s="100"/>
       <c r="F20" s="42"/>
-      <c r="G20" s="99"/>
+      <c r="G20" s="105"/>
       <c r="H20" s="41"/>
       <c r="I20" s="42"/>
-      <c r="J20" s="99"/>
+      <c r="J20" s="105"/>
       <c r="K20" s="42"/>
-      <c r="L20" s="101"/>
+      <c r="L20" s="103"/>
       <c r="M20" s="41"/>
       <c r="N20" s="42"/>
-      <c r="O20" s="101"/>
+      <c r="O20" s="103"/>
       <c r="P20" s="41"/>
       <c r="Q20" s="42"/>
       <c r="R20" s="33"/>
@@ -11163,21 +11169,21 @@
       <c r="Z20" s="35"/>
     </row>
     <row r="21" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A21" s="104"/>
+      <c r="A21" s="99"/>
       <c r="B21" s="42"/>
-      <c r="C21" s="105"/>
+      <c r="C21" s="100"/>
       <c r="D21" s="42"/>
-      <c r="E21" s="105"/>
+      <c r="E21" s="100"/>
       <c r="F21" s="42"/>
-      <c r="G21" s="99"/>
+      <c r="G21" s="105"/>
       <c r="H21" s="41"/>
       <c r="I21" s="42"/>
-      <c r="J21" s="99"/>
+      <c r="J21" s="105"/>
       <c r="K21" s="42"/>
-      <c r="L21" s="101"/>
+      <c r="L21" s="103"/>
       <c r="M21" s="41"/>
       <c r="N21" s="42"/>
-      <c r="O21" s="101"/>
+      <c r="O21" s="103"/>
       <c r="P21" s="41"/>
       <c r="Q21" s="42"/>
       <c r="R21" s="33"/>
@@ -11191,21 +11197,21 @@
       <c r="Z21" s="35"/>
     </row>
     <row r="22" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A22" s="104"/>
+      <c r="A22" s="99"/>
       <c r="B22" s="42"/>
-      <c r="C22" s="105"/>
+      <c r="C22" s="100"/>
       <c r="D22" s="42"/>
-      <c r="E22" s="105"/>
+      <c r="E22" s="100"/>
       <c r="F22" s="42"/>
-      <c r="G22" s="99"/>
+      <c r="G22" s="105"/>
       <c r="H22" s="41"/>
       <c r="I22" s="42"/>
-      <c r="J22" s="99"/>
+      <c r="J22" s="105"/>
       <c r="K22" s="42"/>
-      <c r="L22" s="101"/>
+      <c r="L22" s="103"/>
       <c r="M22" s="41"/>
       <c r="N22" s="42"/>
-      <c r="O22" s="101"/>
+      <c r="O22" s="103"/>
       <c r="P22" s="41"/>
       <c r="Q22" s="42"/>
       <c r="R22" s="33"/>
@@ -11219,21 +11225,21 @@
       <c r="Z22" s="35"/>
     </row>
     <row r="23" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A23" s="104"/>
+      <c r="A23" s="99"/>
       <c r="B23" s="42"/>
-      <c r="C23" s="105"/>
+      <c r="C23" s="100"/>
       <c r="D23" s="42"/>
-      <c r="E23" s="105"/>
+      <c r="E23" s="100"/>
       <c r="F23" s="42"/>
-      <c r="G23" s="99"/>
+      <c r="G23" s="105"/>
       <c r="H23" s="41"/>
       <c r="I23" s="42"/>
-      <c r="J23" s="99"/>
+      <c r="J23" s="105"/>
       <c r="K23" s="42"/>
-      <c r="L23" s="101"/>
+      <c r="L23" s="103"/>
       <c r="M23" s="41"/>
       <c r="N23" s="42"/>
-      <c r="O23" s="101"/>
+      <c r="O23" s="103"/>
       <c r="P23" s="41"/>
       <c r="Q23" s="42"/>
       <c r="R23" s="33"/>
@@ -11247,21 +11253,21 @@
       <c r="Z23" s="35"/>
     </row>
     <row r="24" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A24" s="104"/>
+      <c r="A24" s="99"/>
       <c r="B24" s="42"/>
-      <c r="C24" s="105"/>
+      <c r="C24" s="100"/>
       <c r="D24" s="42"/>
-      <c r="E24" s="105"/>
+      <c r="E24" s="100"/>
       <c r="F24" s="42"/>
-      <c r="G24" s="99"/>
+      <c r="G24" s="105"/>
       <c r="H24" s="41"/>
       <c r="I24" s="42"/>
-      <c r="J24" s="99"/>
+      <c r="J24" s="105"/>
       <c r="K24" s="42"/>
-      <c r="L24" s="101"/>
+      <c r="L24" s="103"/>
       <c r="M24" s="41"/>
       <c r="N24" s="42"/>
-      <c r="O24" s="101"/>
+      <c r="O24" s="103"/>
       <c r="P24" s="41"/>
       <c r="Q24" s="42"/>
       <c r="R24" s="33"/>
@@ -11275,21 +11281,21 @@
       <c r="Z24" s="35"/>
     </row>
     <row r="25" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A25" s="104"/>
+      <c r="A25" s="99"/>
       <c r="B25" s="42"/>
-      <c r="C25" s="105"/>
+      <c r="C25" s="100"/>
       <c r="D25" s="42"/>
-      <c r="E25" s="105"/>
+      <c r="E25" s="100"/>
       <c r="F25" s="42"/>
-      <c r="G25" s="99"/>
+      <c r="G25" s="105"/>
       <c r="H25" s="41"/>
       <c r="I25" s="42"/>
-      <c r="J25" s="99"/>
+      <c r="J25" s="105"/>
       <c r="K25" s="42"/>
-      <c r="L25" s="101"/>
+      <c r="L25" s="103"/>
       <c r="M25" s="41"/>
       <c r="N25" s="42"/>
-      <c r="O25" s="101"/>
+      <c r="O25" s="103"/>
       <c r="P25" s="41"/>
       <c r="Q25" s="42"/>
       <c r="R25" s="33"/>
@@ -11303,21 +11309,21 @@
       <c r="Z25" s="35"/>
     </row>
     <row r="26" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A26" s="104"/>
+      <c r="A26" s="99"/>
       <c r="B26" s="42"/>
-      <c r="C26" s="105"/>
+      <c r="C26" s="100"/>
       <c r="D26" s="42"/>
-      <c r="E26" s="105"/>
+      <c r="E26" s="100"/>
       <c r="F26" s="42"/>
-      <c r="G26" s="99"/>
+      <c r="G26" s="105"/>
       <c r="H26" s="41"/>
       <c r="I26" s="42"/>
-      <c r="J26" s="99"/>
+      <c r="J26" s="105"/>
       <c r="K26" s="42"/>
-      <c r="L26" s="101"/>
+      <c r="L26" s="103"/>
       <c r="M26" s="41"/>
       <c r="N26" s="42"/>
-      <c r="O26" s="101"/>
+      <c r="O26" s="103"/>
       <c r="P26" s="41"/>
       <c r="Q26" s="42"/>
       <c r="R26" s="33"/>
@@ -11331,21 +11337,21 @@
       <c r="Z26" s="35"/>
     </row>
     <row r="27" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A27" s="104"/>
+      <c r="A27" s="99"/>
       <c r="B27" s="42"/>
-      <c r="C27" s="105"/>
+      <c r="C27" s="100"/>
       <c r="D27" s="42"/>
-      <c r="E27" s="105"/>
+      <c r="E27" s="100"/>
       <c r="F27" s="42"/>
-      <c r="G27" s="99"/>
+      <c r="G27" s="105"/>
       <c r="H27" s="41"/>
       <c r="I27" s="42"/>
-      <c r="J27" s="99"/>
+      <c r="J27" s="105"/>
       <c r="K27" s="42"/>
-      <c r="L27" s="101"/>
+      <c r="L27" s="103"/>
       <c r="M27" s="41"/>
       <c r="N27" s="42"/>
-      <c r="O27" s="101"/>
+      <c r="O27" s="103"/>
       <c r="P27" s="41"/>
       <c r="Q27" s="42"/>
       <c r="R27" s="33"/>
@@ -11359,21 +11365,21 @@
       <c r="Z27" s="35"/>
     </row>
     <row r="28" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A28" s="104"/>
+      <c r="A28" s="99"/>
       <c r="B28" s="42"/>
-      <c r="C28" s="105"/>
+      <c r="C28" s="100"/>
       <c r="D28" s="42"/>
-      <c r="E28" s="105"/>
+      <c r="E28" s="100"/>
       <c r="F28" s="42"/>
-      <c r="G28" s="99"/>
+      <c r="G28" s="105"/>
       <c r="H28" s="41"/>
       <c r="I28" s="42"/>
-      <c r="J28" s="99"/>
+      <c r="J28" s="105"/>
       <c r="K28" s="42"/>
-      <c r="L28" s="101"/>
+      <c r="L28" s="103"/>
       <c r="M28" s="41"/>
       <c r="N28" s="42"/>
-      <c r="O28" s="101"/>
+      <c r="O28" s="103"/>
       <c r="P28" s="41"/>
       <c r="Q28" s="42"/>
       <c r="R28" s="33"/>
@@ -11387,21 +11393,21 @@
       <c r="Z28" s="35"/>
     </row>
     <row r="29" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A29" s="104"/>
+      <c r="A29" s="99"/>
       <c r="B29" s="42"/>
-      <c r="C29" s="105"/>
+      <c r="C29" s="100"/>
       <c r="D29" s="42"/>
-      <c r="E29" s="105"/>
+      <c r="E29" s="100"/>
       <c r="F29" s="42"/>
-      <c r="G29" s="99"/>
+      <c r="G29" s="105"/>
       <c r="H29" s="41"/>
       <c r="I29" s="42"/>
-      <c r="J29" s="99"/>
+      <c r="J29" s="105"/>
       <c r="K29" s="42"/>
-      <c r="L29" s="101"/>
+      <c r="L29" s="103"/>
       <c r="M29" s="41"/>
       <c r="N29" s="42"/>
-      <c r="O29" s="101"/>
+      <c r="O29" s="103"/>
       <c r="P29" s="41"/>
       <c r="Q29" s="42"/>
       <c r="R29" s="33"/>
@@ -11415,21 +11421,21 @@
       <c r="Z29" s="35"/>
     </row>
     <row r="30" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A30" s="104"/>
+      <c r="A30" s="99"/>
       <c r="B30" s="42"/>
-      <c r="C30" s="105"/>
+      <c r="C30" s="100"/>
       <c r="D30" s="42"/>
-      <c r="E30" s="105"/>
+      <c r="E30" s="100"/>
       <c r="F30" s="42"/>
-      <c r="G30" s="99"/>
+      <c r="G30" s="105"/>
       <c r="H30" s="41"/>
       <c r="I30" s="42"/>
-      <c r="J30" s="99"/>
+      <c r="J30" s="105"/>
       <c r="K30" s="42"/>
-      <c r="L30" s="101"/>
+      <c r="L30" s="103"/>
       <c r="M30" s="41"/>
       <c r="N30" s="42"/>
-      <c r="O30" s="101"/>
+      <c r="O30" s="103"/>
       <c r="P30" s="41"/>
       <c r="Q30" s="42"/>
       <c r="R30" s="33"/>
@@ -11443,23 +11449,23 @@
       <c r="Z30" s="35"/>
     </row>
     <row r="31" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A31" s="107"/>
-      <c r="B31" s="69"/>
-      <c r="C31" s="108"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="100"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="102"/>
-      <c r="M31" s="68"/>
-      <c r="N31" s="69"/>
-      <c r="O31" s="102"/>
-      <c r="P31" s="68"/>
-      <c r="Q31" s="69"/>
+      <c r="A31" s="101"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="108"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="108"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="104"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="104"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="60"/>
       <c r="R31" s="36"/>
       <c r="S31" s="36"/>
       <c r="T31" s="37"/>
@@ -12457,6 +12463,118 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="136">
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="K2:N4"/>
+    <mergeCell ref="O2:P4"/>
+    <mergeCell ref="Q2:R4"/>
+    <mergeCell ref="S2:T4"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="G2:J4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:T5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:T6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:T7"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
@@ -12481,118 +12599,6 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:T5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:T6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:T7"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="K2:N4"/>
-    <mergeCell ref="O2:P4"/>
-    <mergeCell ref="Q2:R4"/>
-    <mergeCell ref="S2:T4"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="G2:J4"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
